--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2358.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2358.xlsx
@@ -354,7 +354,7 @@
         <v>1.576771292800808</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.234787233349035</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2358.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2358.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8584023506099729</v>
+        <v>1.009538531303406</v>
       </c>
       <c r="B1">
-        <v>1.576771292800808</v>
+        <v>2.120188236236572</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>6.307126522064209</v>
       </c>
       <c r="D1">
-        <v>2.234787233349035</v>
+        <v>1.507797956466675</v>
       </c>
       <c r="E1">
-        <v>1.213794493733497</v>
+        <v>1.349408745765686</v>
       </c>
     </row>
   </sheetData>
